--- a/个人周报/沈瑞晋/沈瑞晋-个人周报-第一周.xlsx
+++ b/个人周报/沈瑞晋/沈瑞晋-个人周报-第一周.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84220\Desktop\repo\StyleTransferApplet\个人周报\沈瑞晋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD822CA9-F06F-4731-9C98-C0E25D4B2981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB8C0C6-DA8F-48A5-A9B2-BFBC5DBD906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -179,12 +179,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -951,56 +945,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,8 +1032,8 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1047,18 +1041,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1118,6 +1112,125 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1147,125 +1260,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1645,17 +1639,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A2" s="23" t="s">
@@ -1679,8 +1673,8 @@
       <c r="G2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" s="10" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1699,46 +1693,46 @@
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -1757,19 +1751,19 @@
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="19" t="s">
         <v>7</v>
       </c>
@@ -1778,19 +1772,19 @@
       <c r="A9" s="25">
         <v>1</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="29">
         <v>2</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="30" t="s">
         <v>15</v>
       </c>
@@ -1799,17 +1793,17 @@
       <c r="A10" s="25">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="30" t="s">
         <v>15</v>
       </c>
@@ -1818,17 +1812,17 @@
       <c r="A11" s="25">
         <v>3</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="29">
         <v>1</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="30" t="s">
         <v>15</v>
       </c>
@@ -1837,67 +1831,67 @@
       <c r="A12" s="25">
         <v>4</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="25">
         <v>5</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A14" s="25">
         <v>6</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A15" s="25">
         <v>7</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="14">
         <v>5</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -1917,57 +1911,57 @@
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" ht="19.850000000000001" customHeight="1">
       <c r="A19" s="26">
         <v>1</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:9" s="10" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A20" s="27">
         <v>2</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A21" s="28">
         <v>3</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="16"/>
@@ -1983,6 +1977,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
@@ -1990,30 +2008,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
